--- a/results/Word frequency 10/Results_freq_10.xlsx
+++ b/results/Word frequency 10/Results_freq_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Polito\Magistrale\Machine learning and Artificial intelligence\MLAI_DomainToText\results\Word frequency 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s277939_studenti_polito_it/Documents/Desktop/2022-project-MLAI/MLAI_DomainToText/results/Word frequency 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0989DAE-554F-4AD5-B271-510B77ED7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F0989DAE-554F-4AD5-B271-510B77ED7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7DACE4F-CAB7-4168-B64F-675B5A9659EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AE723A0-E2F2-4B25-8F2A-0FBE17E7FE67}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9AE723A0-E2F2-4B25-8F2A-0FBE17E7FE67}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -511,14 +511,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84B8FB3-198C-4004-8C63-382D6ECA92F2}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -532,46 +534,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="e">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="B4" s="6">
+        <v>58.19</v>
+      </c>
+      <c r="C4" s="6">
+        <v>95.69</v>
+      </c>
+      <c r="D4" s="7">
+        <v>63.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <f>AVERAGE(A2:A4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B5" s="1" t="e">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="B5" s="1">
         <f>AVERAGE(B2:B4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="1" t="e">
+        <v>58.19</v>
+      </c>
+      <c r="C5" s="1">
         <f>AVERAGE(C2:C4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="1" t="e">
+        <v>95.69</v>
+      </c>
+      <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G23" s="8"/>
     </row>
   </sheetData>

--- a/results/Word frequency 10/Results_freq_10.xlsx
+++ b/results/Word frequency 10/Results_freq_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s277939_studenti_polito_it/Documents/Desktop/2022-project-MLAI/MLAI_DomainToText/results/Word frequency 10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Polito\Magistrale\Machine learning and Artificial intelligence\MLAI_DomainToText\results\Word frequency 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F0989DAE-554F-4AD5-B271-510B77ED7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7DACE4F-CAB7-4168-B64F-675B5A9659EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBCDFEF-170B-4E18-B3DB-40B28B9ADD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9AE723A0-E2F2-4B25-8F2A-0FBE17E7FE67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AE723A0-E2F2-4B25-8F2A-0FBE17E7FE67}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -195,6 +200,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -512,15 +520,15 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -534,19 +542,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>71.53</v>
+      </c>
+      <c r="B2" s="3">
+        <v>57.76</v>
+      </c>
+      <c r="C2" s="3">
+        <v>95.69</v>
+      </c>
+      <c r="D2" s="4">
+        <v>62.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12">
+        <v>69.92</v>
+      </c>
+      <c r="B3" s="3">
+        <v>57.25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>95.27</v>
+      </c>
+      <c r="D3" s="4">
+        <v>62.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>70.510000000000005</v>
       </c>
@@ -560,28 +584,46 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <f>AVERAGE(A2:A4)</f>
-        <v>70.510000000000005</v>
+        <v>70.653333333333322</v>
       </c>
       <c r="B5" s="1">
         <f>AVERAGE(B2:B4)</f>
-        <v>58.19</v>
+        <v>57.733333333333327</v>
       </c>
       <c r="C5" s="1">
         <f>AVERAGE(C2:C4)</f>
-        <v>95.69</v>
+        <v>95.55</v>
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>63.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>62.926666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <f>_xlfn.VAR.P(A2:A4)</f>
+        <v>0.44228888888888823</v>
+      </c>
+      <c r="B7" s="1">
+        <f>_xlfn.VAR.P(B2:B4)</f>
+        <v>0.14762222222222152</v>
+      </c>
+      <c r="C7" s="1">
+        <f>_xlfn.VAR.P(C2:C4)</f>
+        <v>3.9200000000000318E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f>_xlfn.VAR.P(D2:D4)</f>
+        <v>0.16495555555555638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="C11" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:7">
       <c r="G23" s="8"/>
     </row>
   </sheetData>
